--- a/6_Data_Cleaning.xlsx
+++ b/6_Data_Cleaning.xlsx
@@ -1,26 +1,459 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Job\Skills\Excel\Excel-Notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45306BF8-622C-47B0-87D3-509781228640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14460" yWindow="1395" windowWidth="29850" windowHeight="19155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="US_Presidents Excel Tutorial Da" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="137">
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>prior</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>vice</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>Commander-in-Chief  of the  Continental Army   ( 1775â€“1783 )</t>
+  </si>
+  <si>
+    <t>John Adams</t>
+  </si>
+  <si>
+    <t>john adams</t>
+  </si>
+  <si>
+    <t>1st  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Federalist</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson</t>
+  </si>
+  <si>
+    <t>2nd  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Democratic-  Republican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Aaron Burr</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>5th  United States Secretary of State   (1801â€“1809)</t>
+  </si>
+  <si>
+    <t>George    Clinton</t>
+  </si>
+  <si>
+    <t>JAMES MONROE</t>
+  </si>
+  <si>
+    <t>7th  United States Secretary of State   (1811â€“1817)</t>
+  </si>
+  <si>
+    <t>Daniel D. Tompkins</t>
+  </si>
+  <si>
+    <t>John Quincy Adams</t>
+  </si>
+  <si>
+    <t>8th  United States Secretary of State   (1817â€“1825)</t>
+  </si>
+  <si>
+    <t>John C. Calhoun</t>
+  </si>
+  <si>
+    <t>Andrew Jackson</t>
+  </si>
+  <si>
+    <t>U.S. Senator   ( Class 2 )   from  Tennessee   (1823â€“1825)</t>
+  </si>
+  <si>
+    <t>Democratic</t>
+  </si>
+  <si>
+    <t>John C.     Calhoun</t>
+  </si>
+  <si>
+    <t>Martin Van Buren</t>
+  </si>
+  <si>
+    <t>8th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Richard Mentor Johnson</t>
+  </si>
+  <si>
+    <t>William Henry Harrison</t>
+  </si>
+  <si>
+    <t>United States Minister to Colombia   (1828â€“1829)</t>
+  </si>
+  <si>
+    <t>Whig</t>
+  </si>
+  <si>
+    <t>John Tyler</t>
+  </si>
+  <si>
+    <t>john tyler</t>
+  </si>
+  <si>
+    <t>10th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Whig   April 4, 1841  â€“  September 13, 1841</t>
+  </si>
+  <si>
+    <t>Office vacant</t>
+  </si>
+  <si>
+    <t>James K. Polk</t>
+  </si>
+  <si>
+    <t>9th  Governor of Tennessee   (1839â€“1841)</t>
+  </si>
+  <si>
+    <t>George         M. Dallas</t>
+  </si>
+  <si>
+    <t>Zachary Taylor</t>
+  </si>
+  <si>
+    <t>Major General  of the  1st Infantry Regiment   United States Army   (1846â€“1849)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Millard Fillmore</t>
+  </si>
+  <si>
+    <t>Millard Fillmore</t>
+  </si>
+  <si>
+    <t>12th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Franklin Pierce</t>
+  </si>
+  <si>
+    <t>Brigadier General  of the  9th Infantry   United States Army   (1847â€“1848)</t>
+  </si>
+  <si>
+    <t>William R. King</t>
+  </si>
+  <si>
+    <t>James Buchanan</t>
+  </si>
+  <si>
+    <t>United States Minister  to the   Court of St James's   (1853â€“1856)</t>
+  </si>
+  <si>
+    <t>John C. Breckinridge</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln</t>
+  </si>
+  <si>
+    <t>U.S. Representative  for  Illinois' 7th District   (1847â€“1849)</t>
+  </si>
+  <si>
+    <t>Hannibal Hamlin</t>
+  </si>
+  <si>
+    <t>Andrew Johnson</t>
+  </si>
+  <si>
+    <t>16th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Ulysses S. Grant</t>
+  </si>
+  <si>
+    <t>Commanding General  of the U.S. Army   ( 1864â€“1869 )</t>
+  </si>
+  <si>
+    <t>Republican</t>
+  </si>
+  <si>
+    <t>Schuyler Colfax</t>
+  </si>
+  <si>
+    <t>Rutherford B. Hayes</t>
+  </si>
+  <si>
+    <t>29th &amp; 32nd  Governor of Ohio   (1868â€“1872 &amp; 1876â€“1877)</t>
+  </si>
+  <si>
+    <t>William A. Wheeler</t>
+  </si>
+  <si>
+    <t>James A. Garfield</t>
+  </si>
+  <si>
+    <t>U.S. Representative  for  Ohio's 19th District   (1863â€“1881)</t>
+  </si>
+  <si>
+    <t>Chester A. Arthur</t>
+  </si>
+  <si>
+    <t>20th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Grover Cleveland</t>
+  </si>
+  <si>
+    <t>28th  Governor of New York   (1883â€“1885)</t>
+  </si>
+  <si>
+    <t>Thomas A. Hendricks</t>
+  </si>
+  <si>
+    <t>Benjamin Harrison</t>
+  </si>
+  <si>
+    <t>U.S. Senator   ( Class 1 )   from  Indiana   (1881â€“1887)</t>
+  </si>
+  <si>
+    <t>Levi P. Morton</t>
+  </si>
+  <si>
+    <t>22nd  President of the United States   (1885â€“1889)</t>
+  </si>
+  <si>
+    <t>Adlai Stevenson</t>
+  </si>
+  <si>
+    <t>William McKinley</t>
+  </si>
+  <si>
+    <t>39th  Governor of Ohio   (1892â€“1896)</t>
+  </si>
+  <si>
+    <t>Garret Hobart</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t>25th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>William Howard Taft</t>
+  </si>
+  <si>
+    <t>42nd  United States Secretary of War   (1904â€“1908)</t>
+  </si>
+  <si>
+    <t>James S. Sherman</t>
+  </si>
+  <si>
+    <t>Woodrow Wilson</t>
+  </si>
+  <si>
+    <t>34th  Governor of New Jersey   (1911â€“1913)</t>
+  </si>
+  <si>
+    <t>Thomas R. Marshall</t>
+  </si>
+  <si>
+    <t>Warren G. Harding</t>
+  </si>
+  <si>
+    <t>U.S. Senator   ( Class 3 )   from  Ohio   (1915â€“1921)</t>
+  </si>
+  <si>
+    <t>Calvin Coolidge</t>
+  </si>
+  <si>
+    <t>29th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Herbert Hoover</t>
+  </si>
+  <si>
+    <t>3rd  United States Secretary of Commerce   (1921â€“1928)</t>
+  </si>
+  <si>
+    <t>Charles Curtis</t>
+  </si>
+  <si>
+    <t>Franklin D. Roosevelt</t>
+  </si>
+  <si>
+    <t>44th  Governor of New York   ( 1929â€“1932 )</t>
+  </si>
+  <si>
+    <t>John Nance Garner</t>
+  </si>
+  <si>
+    <t>Harry S. Truman</t>
+  </si>
+  <si>
+    <t>34th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Dwight D. Eisenhower</t>
+  </si>
+  <si>
+    <t>Supreme Allied Commander Europe   ( 1949â€“1952 )</t>
+  </si>
+  <si>
+    <t>Richard Nixon</t>
+  </si>
+  <si>
+    <t>John F. Kennedy</t>
+  </si>
+  <si>
+    <t>U.S. Senator   ( Class 1 )   from  Massachusetts   (1953â€“1960)</t>
+  </si>
+  <si>
+    <t>Lyndon B. Johnson</t>
+  </si>
+  <si>
+    <t>37th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>36th  Vice President of the United States   (1953â€“1961)</t>
+  </si>
+  <si>
+    <t>Spiro Agnew</t>
+  </si>
+  <si>
+    <t>Gerald Ford</t>
+  </si>
+  <si>
+    <t>40th  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Jimmy Carter</t>
+  </si>
+  <si>
+    <t>76th  Governor of Georgia   (1971â€“1975)</t>
+  </si>
+  <si>
+    <t>Walter Mondale</t>
+  </si>
+  <si>
+    <t>Ronald Reagan</t>
+  </si>
+  <si>
+    <t>33rd  Governor of California   ( 1967â€“1975 )</t>
+  </si>
+  <si>
+    <t>George H. W. Bush</t>
+  </si>
+  <si>
+    <t>43rd  Vice President of the United States</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>40th &amp; 42nd  Governor of Arkansas   (1979â€“1981 &amp; 1983â€“1992)</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>46th  Governor of Texas   ( 1995â€“2000 )</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>U.S. Senator   ( Class 3 )   from  Illinois   ( 2005â€“2008 )</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Chairman of   The Trump Organization   ( 1971â€“present )</t>
+  </si>
+  <si>
+    <t>Mike Pence</t>
+  </si>
+  <si>
+    <t>Nonpartisan</t>
+  </si>
+  <si>
+    <t>Republicans</t>
+  </si>
+  <si>
+    <t>Demorcatic</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>date created</t>
+  </si>
+  <si>
+    <t>date updated</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +461,322 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +784,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -85,7 +1017,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +1029,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +1076,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +1128,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +1296,1411 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="23.5703125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I3" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I4" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I5" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I6" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4">
+        <v>30000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I7" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4">
+        <v>35000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I8" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4">
+        <v>40000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I9" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I11" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="4">
+        <v>55000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I12" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="4">
+        <v>60000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I13" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4">
+        <v>65000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I14" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="4">
+        <v>75000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I15" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="4">
+        <v>85000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I16" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4">
+        <v>95000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I17" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="4">
+        <v>105000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I18" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="4">
+        <v>115000</v>
+      </c>
+      <c r="H19" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I19" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="4">
+        <v>125000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I20" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="4">
+        <v>135000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I21" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="4">
+        <v>145000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I22" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="4">
+        <v>155000</v>
+      </c>
+      <c r="H23" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I23" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="4">
+        <v>165000</v>
+      </c>
+      <c r="H24" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I24" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="4">
+        <v>175000</v>
+      </c>
+      <c r="H25" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I25" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="4">
+        <v>185000</v>
+      </c>
+      <c r="H26" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I26" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="4">
+        <v>195000</v>
+      </c>
+      <c r="H27" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I27" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="4">
+        <v>205000</v>
+      </c>
+      <c r="H28" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I28" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="4">
+        <v>225000</v>
+      </c>
+      <c r="H29" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I29" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="4">
+        <v>225000</v>
+      </c>
+      <c r="H30" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I30" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="4">
+        <v>235000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I31" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="4">
+        <v>245000</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I32" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="4">
+        <v>255000</v>
+      </c>
+      <c r="H33" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I33" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="4">
+        <v>265000</v>
+      </c>
+      <c r="H34" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I34" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="4">
+        <v>275000</v>
+      </c>
+      <c r="H35" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I35" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="4">
+        <v>285000</v>
+      </c>
+      <c r="H36" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I36" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="4">
+        <v>295000</v>
+      </c>
+      <c r="H37" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I37" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="4">
+        <v>305000</v>
+      </c>
+      <c r="H38" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I38" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="4">
+        <v>315000</v>
+      </c>
+      <c r="H39" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I39" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="4">
+        <v>325000</v>
+      </c>
+      <c r="H40" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I40" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="4">
+        <v>335000</v>
+      </c>
+      <c r="H41" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I41" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="4">
+        <v>345000</v>
+      </c>
+      <c r="H42" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I42" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="4">
+        <v>355000</v>
+      </c>
+      <c r="H43" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I43" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="4">
+        <v>365000</v>
+      </c>
+      <c r="H44" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I44" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="4">
+        <v>375000</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I45" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="4">
+        <v>395000</v>
+      </c>
+      <c r="H46" s="2">
+        <v>44391</v>
+      </c>
+      <c r="I46" s="2">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="4">
+        <v>395000</v>
+      </c>
+      <c r="H47" s="2">
+        <v>44391</v>
+      </c>
+      <c r="I47" s="2">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="4">
+        <v>405000</v>
+      </c>
+      <c r="H48" s="2">
+        <v>44391</v>
+      </c>
+      <c r="I48" s="2">
+        <v>43862</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/6_Data_Cleaning.xlsx
+++ b/6_Data_Cleaning.xlsx
@@ -8,31 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Job\Skills\Excel\Excel-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45306BF8-622C-47B0-87D3-509781228640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57027AE-402C-4050-A473-4E83FBBDE5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14460" yWindow="1395" windowWidth="29850" windowHeight="19155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="US_Presidents Excel Tutorial Da" sheetId="1" r:id="rId1"/>
+    <sheet name="Cleaned" sheetId="3" r:id="rId1"/>
+    <sheet name="US-Presidents " sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="137">
   <si>
     <t>S.No.</t>
   </si>
@@ -1296,11 +1285,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A7C9D2-BE8F-43A2-BBEB-AA4943743AAA}">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="23.5703125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="str">
+        <f>PROPER(C2)</f>
+        <v>George Washington</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J2" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D47" si="0">PROPER(C3)</f>
+        <v>John Adams</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J3" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Thomas Jefferson</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4">
+        <v>15000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J4" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>James Madison</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4">
+        <v>20000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J5" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>James Monroe</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4">
+        <v>25000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J6" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>John Quincy Adams</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4">
+        <v>30000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J7" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Andrew Jackson</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="4">
+        <v>35000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J8" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Martin Van Buren</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4">
+        <v>40000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J9" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>William Henry Harrison</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4">
+        <v>45000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J10" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>John Tyler</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="4">
+        <v>50000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J11" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>James K. Polk</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="4">
+        <v>55000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J12" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Zachary Taylor</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="4">
+        <v>60000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J13" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Millard Fillmore</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4">
+        <v>65000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J14" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Franklin Pierce</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="4">
+        <v>75000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J15" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>James Buchanan</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="4">
+        <v>85000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J16" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Abraham Lincoln</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="4">
+        <v>95000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J17" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Andrew Johnson</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="4">
+        <v>105000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J18" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ulysses S. Grant</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="4">
+        <v>115000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J19" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Rutherford B. Hayes</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="4">
+        <v>125000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J20" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>James A. Garfield</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="4">
+        <v>135000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J21" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Chester A. Arthur</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="4">
+        <v>145000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J22" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Grover Cleveland</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="4">
+        <v>155000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J23" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Benjamin Harrison</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="4">
+        <v>165000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J24" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>Grover Cleveland</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="4">
+        <v>175000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J25" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>William Mckinley</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="4">
+        <v>185000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J26" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Theodore Roosevelt</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="4">
+        <v>195000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J27" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>William Howard Taft</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="4">
+        <v>205000</v>
+      </c>
+      <c r="I28" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J28" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>Woodrow Wilson</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="4">
+        <v>225000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J29" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>Woodrow Wilson</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="4">
+        <v>225000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J30" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Warren G. Harding</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="4">
+        <v>235000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J31" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Calvin Coolidge</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="4">
+        <v>245000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J32" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Herbert Hoover</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="4">
+        <v>255000</v>
+      </c>
+      <c r="I33" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J33" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Franklin D. Roosevelt</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="4">
+        <v>265000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J34" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Harry S. Truman</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="4">
+        <v>275000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J35" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Dwight D. Eisenhower</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="4">
+        <v>285000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J36" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>John F. Kennedy</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="4">
+        <v>295000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J37" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Lyndon B. Johnson</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="4">
+        <v>305000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J38" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>Richard Nixon</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="4">
+        <v>315000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J39" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>Gerald Ford</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="4">
+        <v>325000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J40" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Jimmy Carter</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>113</v>
+      </c>
+      <c r="H41" s="4">
+        <v>335000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J41" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Ronald Reagan</v>
+      </c>
+      <c r="E42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="4">
+        <v>345000</v>
+      </c>
+      <c r="I42" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J42" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>George H. W. Bush</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" s="4">
+        <v>355000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J43" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>Bill Clinton</v>
+      </c>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="4">
+        <v>365000</v>
+      </c>
+      <c r="I44" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J44" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>George W. Bush</v>
+      </c>
+      <c r="E45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="4">
+        <v>375000</v>
+      </c>
+      <c r="I45" s="1">
+        <v>44391</v>
+      </c>
+      <c r="J45" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>Barack Obama</v>
+      </c>
+      <c r="E46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="4">
+        <v>395000</v>
+      </c>
+      <c r="I46" s="2">
+        <v>44391</v>
+      </c>
+      <c r="J46" s="2">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>Donald Trump</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="4">
+        <v>405000</v>
+      </c>
+      <c r="I47" s="2">
+        <v>44391</v>
+      </c>
+      <c r="J47" s="2">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H48"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/6_Data_Cleaning.xlsx
+++ b/6_Data_Cleaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Job\Skills\Excel\Excel-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57027AE-402C-4050-A473-4E83FBBDE5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D616BE7-B096-4250-A8E4-E6D3592919B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14460" yWindow="1395" windowWidth="29850" windowHeight="19155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,15 @@
     <sheet name="Cleaned" sheetId="3" r:id="rId1"/>
     <sheet name="US-Presidents " sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cleaned!$A$1:$G$47</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="144">
   <si>
     <t>S.No.</t>
   </si>
@@ -432,15 +435,37 @@
   </si>
   <si>
     <t>date updated</t>
+  </si>
+  <si>
+    <t>Joseph Biden</t>
+  </si>
+  <si>
+    <t>Kamala Harris</t>
+  </si>
+  <si>
+    <t>Aaron Burr</t>
+  </si>
+  <si>
+    <t>George Clinton</t>
+  </si>
+  <si>
+    <t>George M. Dallas</t>
+  </si>
+  <si>
+    <t>James Monroe</t>
+  </si>
+  <si>
+    <t>William Mckinley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -925,12 +950,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1286,1565 +1313,1108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A7C9D2-BE8F-43A2-BBEB-AA4943743AAA}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="23.5703125" style="3"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G2" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G3" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G4" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G5" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="D2" t="str">
-        <f>PROPER(C2)</f>
-        <v>George Washington</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G6" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G7" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="H2" s="4">
-        <v>5000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J2" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5">
+        <v>35000</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G8" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D47" si="0">PROPER(C3)</f>
-        <v>John Adams</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5">
+        <v>40000</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G9" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45000</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G10" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F11" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G11" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="H3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J3" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>Thomas Jefferson</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="5">
+        <v>55000</v>
+      </c>
+      <c r="F12" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G12" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5">
+        <v>60000</v>
+      </c>
+      <c r="F13" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G13" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5">
+        <v>65000</v>
+      </c>
+      <c r="F14" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G14" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="H4" s="4">
-        <v>15000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J4" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5">
+        <v>75000</v>
+      </c>
+      <c r="F15" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G15" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>James Madison</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="5">
+        <v>85000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G16" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5">
+        <v>95000</v>
+      </c>
+      <c r="F17" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G17" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="H5" s="4">
-        <v>20000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J5" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5">
+        <v>105000</v>
+      </c>
+      <c r="F18" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G18" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>James Monroe</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="5">
+        <v>115000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G19" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="5">
+        <v>125000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G20" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="H6" s="4">
-        <v>25000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J6" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="5">
+        <v>135000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G21" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>John Quincy Adams</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="5">
+        <v>145000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G22" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="5">
+        <v>155000</v>
+      </c>
+      <c r="F23" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G23" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="H7" s="4">
-        <v>30000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J7" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="5">
+        <v>165000</v>
+      </c>
+      <c r="F24" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G24" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>Andrew Jackson</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="5">
+        <v>175000</v>
+      </c>
+      <c r="F25" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G25" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="5">
+        <v>185000</v>
+      </c>
+      <c r="F26" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G26" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="5">
+        <v>195000</v>
+      </c>
+      <c r="F27" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G27" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="H8" s="4">
-        <v>35000</v>
-      </c>
-      <c r="I8" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J8" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="5">
+        <v>205000</v>
+      </c>
+      <c r="F28" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G28" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>Martin Van Buren</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="5">
+        <v>225000</v>
+      </c>
+      <c r="F29" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G29" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="5">
+        <v>235000</v>
+      </c>
+      <c r="F30" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G30" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="5">
+        <v>245000</v>
+      </c>
+      <c r="F31" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G31" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="5">
+        <v>255000</v>
+      </c>
+      <c r="F32" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G32" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="4">
-        <v>40000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J9" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>William Henry Harrison</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="5">
+        <v>265000</v>
+      </c>
+      <c r="F33" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G33" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="G10" t="s">
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="5">
+        <v>275000</v>
+      </c>
+      <c r="F34" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G34" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="H10" s="4">
-        <v>45000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J10" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="5">
+        <v>285000</v>
+      </c>
+      <c r="F35" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G35" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>John Tyler</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="5">
+        <v>295000</v>
+      </c>
+      <c r="F36" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G36" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="5">
+        <v>305000</v>
+      </c>
+      <c r="F37" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G37" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="G11" t="s">
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="5">
+        <v>315000</v>
+      </c>
+      <c r="F38" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G38" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="H11" s="4">
-        <v>50000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J11" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="5">
+        <v>325000</v>
+      </c>
+      <c r="F39" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G39" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>James K. Polk</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="5">
+        <v>335000</v>
+      </c>
+      <c r="F40" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G40" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="F12" t="s">
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="5">
+        <v>345000</v>
+      </c>
+      <c r="F41" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G41" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="5">
+        <v>355000</v>
+      </c>
+      <c r="F42" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G42" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
         <v>26</v>
       </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="4">
-        <v>55000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J12" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>Zachary Taylor</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="5">
+        <v>365000</v>
+      </c>
+      <c r="F43" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G43" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="5">
+        <v>375000</v>
+      </c>
+      <c r="F44" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G44" s="6">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="H13" s="4">
-        <v>60000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J13" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="5">
+        <v>395000</v>
+      </c>
+      <c r="F45" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G45" s="6">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>Millard Fillmore</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="5">
+        <v>405000</v>
+      </c>
+      <c r="F46" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G46" s="6">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="4">
-        <v>65000</v>
-      </c>
-      <c r="I14" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J14" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>Franklin Pierce</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="4">
-        <v>75000</v>
-      </c>
-      <c r="I15" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J15" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>James Buchanan</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="4">
-        <v>85000</v>
-      </c>
-      <c r="I16" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J16" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>Abraham Lincoln</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="4">
-        <v>95000</v>
-      </c>
-      <c r="I17" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J17" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>Andrew Johnson</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="4">
-        <v>105000</v>
-      </c>
-      <c r="I18" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J18" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>Ulysses S. Grant</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="4">
-        <v>115000</v>
-      </c>
-      <c r="I19" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J19" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>Rutherford B. Hayes</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="4">
-        <v>125000</v>
-      </c>
-      <c r="I20" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J20" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>James A. Garfield</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="4">
-        <v>135000</v>
-      </c>
-      <c r="I21" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J21" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>Chester A. Arthur</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="4">
-        <v>145000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J22" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>Grover Cleveland</v>
-      </c>
-      <c r="E23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="4">
-        <v>155000</v>
-      </c>
-      <c r="I23" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J23" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>Benjamin Harrison</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="4">
-        <v>165000</v>
-      </c>
-      <c r="I24" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J24" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>Grover Cleveland</v>
-      </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="4">
-        <v>175000</v>
-      </c>
-      <c r="I25" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J25" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>William Mckinley</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="4">
-        <v>185000</v>
-      </c>
-      <c r="I26" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J26" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>Theodore Roosevelt</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="4">
-        <v>195000</v>
-      </c>
-      <c r="I27" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J27" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>William Howard Taft</v>
-      </c>
-      <c r="E28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="4">
-        <v>205000</v>
-      </c>
-      <c r="I28" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J28" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>Woodrow Wilson</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="4">
-        <v>225000</v>
-      </c>
-      <c r="I29" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J29" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>Woodrow Wilson</v>
-      </c>
-      <c r="E30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" t="s">
-        <v>133</v>
-      </c>
-      <c r="G30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="4">
-        <v>225000</v>
-      </c>
-      <c r="I30" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J30" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>Warren G. Harding</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="4">
-        <v>235000</v>
-      </c>
-      <c r="I31" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J31" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>Calvin Coolidge</v>
-      </c>
-      <c r="E32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="4">
-        <v>245000</v>
-      </c>
-      <c r="I32" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J32" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>Herbert Hoover</v>
-      </c>
-      <c r="E33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" s="4">
-        <v>255000</v>
-      </c>
-      <c r="I33" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J33" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>Franklin D. Roosevelt</v>
-      </c>
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" s="4">
-        <v>265000</v>
-      </c>
-      <c r="I34" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J34" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>Harry S. Truman</v>
-      </c>
-      <c r="E35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="4">
-        <v>275000</v>
-      </c>
-      <c r="I35" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J35" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>Dwight D. Eisenhower</v>
-      </c>
-      <c r="E36" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="4">
-        <v>285000</v>
-      </c>
-      <c r="I36" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J36" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>John F. Kennedy</v>
-      </c>
-      <c r="E37" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="4">
-        <v>295000</v>
-      </c>
-      <c r="I37" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J37" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>Lyndon B. Johnson</v>
-      </c>
-      <c r="E38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="4">
-        <v>305000</v>
-      </c>
-      <c r="I38" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J38" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>Richard Nixon</v>
-      </c>
-      <c r="E39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H39" s="4">
-        <v>315000</v>
-      </c>
-      <c r="I39" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J39" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>Gerald Ford</v>
-      </c>
-      <c r="E40" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="4">
-        <v>325000</v>
-      </c>
-      <c r="I40" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J40" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>Jimmy Carter</v>
-      </c>
-      <c r="E41" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>113</v>
-      </c>
-      <c r="H41" s="4">
-        <v>335000</v>
-      </c>
-      <c r="I41" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J41" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>Ronald Reagan</v>
-      </c>
-      <c r="E42" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="4">
-        <v>345000</v>
-      </c>
-      <c r="I42" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J42" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>George H. W. Bush</v>
-      </c>
-      <c r="E43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" t="s">
-        <v>118</v>
-      </c>
-      <c r="H43" s="4">
-        <v>355000</v>
-      </c>
-      <c r="I43" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J43" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>Bill Clinton</v>
-      </c>
-      <c r="E44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>121</v>
-      </c>
-      <c r="H44" s="4">
-        <v>365000</v>
-      </c>
-      <c r="I44" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J44" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>George W. Bush</v>
-      </c>
-      <c r="E45" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" s="4">
-        <v>375000</v>
-      </c>
-      <c r="I45" s="1">
-        <v>44391</v>
-      </c>
-      <c r="J45" s="1">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>Barack Obama</v>
-      </c>
-      <c r="E46" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>127</v>
-      </c>
-      <c r="H46" s="4">
-        <v>395000</v>
-      </c>
-      <c r="I46" s="2">
-        <v>44391</v>
-      </c>
-      <c r="J46" s="2">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>Donald Trump</v>
-      </c>
-      <c r="E47" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" t="s">
-        <v>130</v>
-      </c>
-      <c r="H47" s="4">
-        <v>405000</v>
-      </c>
-      <c r="I47" s="2">
-        <v>44391</v>
-      </c>
-      <c r="J47" s="2">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H48"/>
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="5">
+        <v>400000</v>
+      </c>
+      <c r="F47" s="6">
+        <v>44907</v>
+      </c>
+      <c r="G47" s="6">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G47" xr:uid="{74A7C9D2-BE8F-43A2-BBEB-AA4943743AAA}"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2856,7 +2426,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="A49" sqref="A49:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
